--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.965136666666667</v>
+        <v>3.222271333333333</v>
       </c>
       <c r="H2">
-        <v>14.89541</v>
+        <v>9.666814</v>
       </c>
       <c r="I2">
-        <v>0.1313350603660866</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="J2">
-        <v>0.1313350603660867</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.671010333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N2">
-        <v>5.013031</v>
+        <v>0.859405</v>
       </c>
       <c r="O2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q2">
-        <v>8.296794676412222</v>
+        <v>0.9230786984077778</v>
       </c>
       <c r="R2">
-        <v>74.67115208771</v>
+        <v>8.30770828567</v>
       </c>
       <c r="S2">
-        <v>0.1127279759530601</v>
+        <v>0.01295695905038759</v>
       </c>
       <c r="T2">
-        <v>0.1127279759530601</v>
+        <v>0.01295695905038759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.965136666666667</v>
+        <v>3.222271333333333</v>
       </c>
       <c r="H3">
-        <v>14.89541</v>
+        <v>9.666814</v>
       </c>
       <c r="I3">
-        <v>0.1313350603660866</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="J3">
-        <v>0.1313350603660867</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07106366666666666</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N3">
-        <v>0.213191</v>
+        <v>5.013031</v>
       </c>
       <c r="O3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q3">
-        <v>0.3528408170344445</v>
+        <v>5.384448694803778</v>
       </c>
       <c r="R3">
-        <v>3.17556735331</v>
+        <v>48.460038253234</v>
       </c>
       <c r="S3">
-        <v>0.004794023799455624</v>
+        <v>0.07557977599074188</v>
       </c>
       <c r="T3">
-        <v>0.004794023799455625</v>
+        <v>0.07557977599074189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.965136666666667</v>
+        <v>3.222271333333333</v>
       </c>
       <c r="H4">
-        <v>14.89541</v>
+        <v>9.666814</v>
       </c>
       <c r="I4">
-        <v>0.1313350603660866</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="J4">
-        <v>0.1313350603660867</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2047563333333333</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N4">
-        <v>0.614269</v>
+        <v>0.233389</v>
       </c>
       <c r="O4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q4">
-        <v>1.016643178365556</v>
+        <v>0.2506808947384445</v>
       </c>
       <c r="R4">
-        <v>9.149788605289999</v>
+        <v>2.256128052646</v>
       </c>
       <c r="S4">
-        <v>0.01381306061357096</v>
+        <v>0.003518727161013618</v>
       </c>
       <c r="T4">
-        <v>0.01381306061357096</v>
+        <v>0.003518727161013618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.820792666666667</v>
+        <v>3.222271333333333</v>
       </c>
       <c r="H5">
-        <v>11.462378</v>
+        <v>9.666814</v>
       </c>
       <c r="I5">
-        <v>0.1010655031696948</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="J5">
-        <v>0.1010655031696948</v>
+        <v>0.108780998862847</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.671010333333333</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N5">
-        <v>5.013031</v>
+        <v>1.109366</v>
       </c>
       <c r="O5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q5">
-        <v>6.384584027524223</v>
+        <v>1.191559419991556</v>
       </c>
       <c r="R5">
-        <v>57.461256247718</v>
+        <v>10.724034779924</v>
       </c>
       <c r="S5">
-        <v>0.08674690200195126</v>
+        <v>0.01672553666070395</v>
       </c>
       <c r="T5">
-        <v>0.08674690200195126</v>
+        <v>0.01672553666070395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>11.462378</v>
       </c>
       <c r="I6">
-        <v>0.1010655031696948</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="J6">
-        <v>0.1010655031696948</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07106366666666666</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N6">
-        <v>0.213191</v>
+        <v>0.859405</v>
       </c>
       <c r="O6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q6">
-        <v>0.2715195364664444</v>
+        <v>1.094536107232222</v>
       </c>
       <c r="R6">
-        <v>2.443675828198</v>
+        <v>9.85082496509</v>
       </c>
       <c r="S6">
-        <v>0.003689117179745745</v>
+        <v>0.01536365159876497</v>
       </c>
       <c r="T6">
-        <v>0.003689117179745745</v>
+        <v>0.01536365159876497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,55 +856,55 @@
         <v>11.462378</v>
       </c>
       <c r="I7">
-        <v>0.1010655031696948</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="J7">
-        <v>0.1010655031696948</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2047563333333333</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N7">
-        <v>0.614269</v>
+        <v>5.013031</v>
       </c>
       <c r="O7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q7">
-        <v>0.7823314968535556</v>
+        <v>6.384584027524223</v>
       </c>
       <c r="R7">
-        <v>7.040983471682</v>
+        <v>57.461256247718</v>
       </c>
       <c r="S7">
-        <v>0.0106294839879978</v>
+        <v>0.08961835425417392</v>
       </c>
       <c r="T7">
-        <v>0.0106294839879978</v>
+        <v>0.08961835425417393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.53798066666666</v>
+        <v>3.820792666666667</v>
       </c>
       <c r="H8">
-        <v>40.61394199999999</v>
+        <v>11.462378</v>
       </c>
       <c r="I8">
-        <v>0.3580992080295031</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="J8">
-        <v>0.3580992080295031</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.671010333333333</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N8">
-        <v>5.013031</v>
+        <v>0.233389</v>
       </c>
       <c r="O8">
-        <v>0.8583235553312213</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P8">
-        <v>0.8583235553312213</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q8">
-        <v>22.62210558646688</v>
+        <v>0.2972436598935556</v>
       </c>
       <c r="R8">
-        <v>203.598950278202</v>
+        <v>2.675192939042001</v>
       </c>
       <c r="S8">
-        <v>0.3073649853971777</v>
+        <v>0.004172313732156733</v>
       </c>
       <c r="T8">
-        <v>0.3073649853971778</v>
+        <v>0.004172313732156733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.53798066666666</v>
+        <v>3.820792666666667</v>
       </c>
       <c r="H9">
-        <v>40.61394199999999</v>
+        <v>11.462378</v>
       </c>
       <c r="I9">
-        <v>0.3580992080295031</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="J9">
-        <v>0.3580992080295031</v>
+        <v>0.1289865438792474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07106366666666666</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N9">
-        <v>0.213191</v>
+        <v>1.109366</v>
       </c>
       <c r="O9">
-        <v>0.03650223928090977</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P9">
-        <v>0.03650223928090977</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q9">
-        <v>0.9620585454357775</v>
+        <v>1.412885825816445</v>
       </c>
       <c r="R9">
-        <v>8.658526908921999</v>
+        <v>12.715972432348</v>
       </c>
       <c r="S9">
-        <v>0.01307142297779721</v>
+        <v>0.01983222429415177</v>
       </c>
       <c r="T9">
-        <v>0.01307142297779721</v>
+        <v>0.01983222429415177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.53798066666666</v>
+        <v>12.64846033333333</v>
       </c>
       <c r="H10">
-        <v>40.61394199999999</v>
+        <v>37.945381</v>
       </c>
       <c r="I10">
-        <v>0.3580992080295031</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="J10">
-        <v>0.3580992080295031</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2047563333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N10">
-        <v>0.614269</v>
+        <v>0.859405</v>
       </c>
       <c r="O10">
-        <v>0.1051742053878689</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P10">
-        <v>0.1051742053878689</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q10">
-        <v>2.771987282044222</v>
+        <v>3.623383350922778</v>
       </c>
       <c r="R10">
-        <v>24.94788553839799</v>
+        <v>32.61045015830501</v>
       </c>
       <c r="S10">
-        <v>0.03766279965452816</v>
+        <v>0.05086026769195675</v>
       </c>
       <c r="T10">
-        <v>0.03766279965452816</v>
+        <v>0.05086026769195675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.522417</v>
+        <v>12.64846033333333</v>
       </c>
       <c r="H11">
-        <v>4.567251000000001</v>
+        <v>37.945381</v>
       </c>
       <c r="I11">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="J11">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,27 +1122,27 @@
         <v>5.013031</v>
       </c>
       <c r="O11">
-        <v>0.8583235553312213</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P11">
-        <v>0.8583235553312213</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q11">
-        <v>2.543974538642333</v>
+        <v>21.13570791775678</v>
       </c>
       <c r="R11">
-        <v>22.895770847781</v>
+        <v>190.221371259811</v>
       </c>
       <c r="S11">
-        <v>0.03456480626579527</v>
+        <v>0.2966751399026973</v>
       </c>
       <c r="T11">
-        <v>0.03456480626579527</v>
+        <v>0.2966751399026974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.522417</v>
+        <v>12.64846033333333</v>
       </c>
       <c r="H12">
-        <v>4.567251000000001</v>
+        <v>37.945381</v>
       </c>
       <c r="I12">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="J12">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07106366666666666</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N12">
-        <v>0.213191</v>
+        <v>0.233389</v>
       </c>
       <c r="O12">
-        <v>0.03650223928090977</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P12">
-        <v>0.03650223928090977</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q12">
-        <v>0.1081885342156667</v>
+        <v>0.9840038362454446</v>
       </c>
       <c r="R12">
-        <v>0.9736968079410001</v>
+        <v>8.856034526209001</v>
       </c>
       <c r="S12">
-        <v>0.001469950138471348</v>
+        <v>0.01381214563140556</v>
       </c>
       <c r="T12">
-        <v>0.001469950138471348</v>
+        <v>0.01381214563140556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.522417</v>
+        <v>12.64846033333333</v>
       </c>
       <c r="H13">
-        <v>4.567251000000001</v>
+        <v>37.945381</v>
       </c>
       <c r="I13">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="J13">
-        <v>0.0402701359541006</v>
+        <v>0.4270007106179241</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2047563333333333</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N13">
-        <v>0.614269</v>
+        <v>1.109366</v>
       </c>
       <c r="O13">
-        <v>0.1051742053878689</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P13">
-        <v>0.1051742053878689</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q13">
-        <v>0.3117245227243333</v>
+        <v>4.677257282049556</v>
       </c>
       <c r="R13">
-        <v>2.805520704519</v>
+        <v>42.09531553844601</v>
       </c>
       <c r="S13">
-        <v>0.004235379549833981</v>
+        <v>0.06565315739186449</v>
       </c>
       <c r="T13">
-        <v>0.004235379549833981</v>
+        <v>0.06565315739186449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.958785</v>
+        <v>2.198319333333334</v>
       </c>
       <c r="H14">
-        <v>41.876355</v>
+        <v>6.594958</v>
       </c>
       <c r="I14">
-        <v>0.3692300924806148</v>
+        <v>0.07421329495928275</v>
       </c>
       <c r="J14">
-        <v>0.3692300924806148</v>
+        <v>0.07421329495928275</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.671010333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N14">
-        <v>5.013031</v>
+        <v>0.859405</v>
       </c>
       <c r="O14">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P14">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q14">
-        <v>23.32527397577833</v>
+        <v>0.6297488755544445</v>
       </c>
       <c r="R14">
-        <v>209.927465782005</v>
+        <v>5.66773987999</v>
       </c>
       <c r="S14">
-        <v>0.3169188857132369</v>
+        <v>0.008839582591019753</v>
       </c>
       <c r="T14">
-        <v>0.316918885713237</v>
+        <v>0.008839582591019753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,418 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.958785</v>
+        <v>2.198319333333334</v>
       </c>
       <c r="H15">
-        <v>41.876355</v>
+        <v>6.594958</v>
       </c>
       <c r="I15">
-        <v>0.3692300924806148</v>
+        <v>0.07421329495928275</v>
       </c>
       <c r="J15">
-        <v>0.3692300924806148</v>
+        <v>0.07421329495928275</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.07106366666666666</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N15">
-        <v>0.213191</v>
+        <v>5.013031</v>
       </c>
       <c r="O15">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P15">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q15">
-        <v>0.9919624443116667</v>
+        <v>3.673414321966445</v>
       </c>
       <c r="R15">
-        <v>8.927661998805</v>
+        <v>33.060728897698</v>
       </c>
       <c r="S15">
-        <v>0.01347772518543985</v>
+        <v>0.05156253635462016</v>
       </c>
       <c r="T15">
-        <v>0.01347772518543985</v>
+        <v>0.05156253635462017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.198319333333334</v>
+      </c>
+      <c r="H16">
+        <v>6.594958</v>
+      </c>
+      <c r="I16">
+        <v>0.07421329495928275</v>
+      </c>
+      <c r="J16">
+        <v>0.07421329495928275</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.233389</v>
+      </c>
+      <c r="O16">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="P16">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="Q16">
+        <v>0.1710211836291111</v>
+      </c>
+      <c r="R16">
+        <v>1.539190652662</v>
+      </c>
+      <c r="S16">
+        <v>0.00240056939549515</v>
+      </c>
+      <c r="T16">
+        <v>0.00240056939549515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.198319333333334</v>
+      </c>
+      <c r="H17">
+        <v>6.594958</v>
+      </c>
+      <c r="I17">
+        <v>0.07421329495928275</v>
+      </c>
+      <c r="J17">
+        <v>0.07421329495928275</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3697886666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.109366</v>
+      </c>
+      <c r="O17">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="P17">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="Q17">
+        <v>0.812913575180889</v>
+      </c>
+      <c r="R17">
+        <v>7.316222176628001</v>
+      </c>
+      <c r="S17">
+        <v>0.01141060661814769</v>
+      </c>
+      <c r="T17">
+        <v>0.01141060661814769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.731794000000001</v>
+      </c>
+      <c r="H18">
+        <v>23.195382</v>
+      </c>
+      <c r="I18">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="J18">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.859405</v>
+      </c>
+      <c r="O18">
+        <v>0.1191104989459046</v>
+      </c>
+      <c r="P18">
+        <v>0.1191104989459046</v>
+      </c>
+      <c r="Q18">
+        <v>2.214914140856667</v>
+      </c>
+      <c r="R18">
+        <v>19.93422726771</v>
+      </c>
+      <c r="S18">
+        <v>0.03109003801377551</v>
+      </c>
+      <c r="T18">
+        <v>0.03109003801377552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.731794000000001</v>
+      </c>
+      <c r="H19">
+        <v>23.195382</v>
+      </c>
+      <c r="I19">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="J19">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.671010333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.013031</v>
+      </c>
+      <c r="O19">
+        <v>0.6947883985330395</v>
+      </c>
+      <c r="P19">
+        <v>0.6947883985330396</v>
+      </c>
+      <c r="Q19">
+        <v>12.91990766920467</v>
+      </c>
+      <c r="R19">
+        <v>116.279169022842</v>
+      </c>
+      <c r="S19">
+        <v>0.1813525920308063</v>
+      </c>
+      <c r="T19">
+        <v>0.1813525920308063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.731794000000001</v>
+      </c>
+      <c r="H20">
+        <v>23.195382</v>
+      </c>
+      <c r="I20">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="J20">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.233389</v>
+      </c>
+      <c r="O20">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="P20">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="Q20">
+        <v>0.6015052232886668</v>
+      </c>
+      <c r="R20">
+        <v>5.413547009598001</v>
+      </c>
+      <c r="S20">
+        <v>0.008443135520502036</v>
+      </c>
+      <c r="T20">
+        <v>0.008443135520502038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.958785</v>
-      </c>
-      <c r="H16">
-        <v>41.876355</v>
-      </c>
-      <c r="I16">
-        <v>0.3692300924806148</v>
-      </c>
-      <c r="J16">
-        <v>0.3692300924806148</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2047563333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.614269</v>
-      </c>
-      <c r="O16">
-        <v>0.1051742053878689</v>
-      </c>
-      <c r="P16">
-        <v>0.1051742053878689</v>
-      </c>
-      <c r="Q16">
-        <v>2.858149634388333</v>
-      </c>
-      <c r="R16">
-        <v>25.723346709495</v>
-      </c>
-      <c r="S16">
-        <v>0.03883348158193801</v>
-      </c>
-      <c r="T16">
-        <v>0.03883348158193802</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.731794000000001</v>
+      </c>
+      <c r="H21">
+        <v>23.195382</v>
+      </c>
+      <c r="I21">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="J21">
+        <v>0.2610184516806988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3697886666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.109366</v>
+      </c>
+      <c r="O21">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="P21">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="Q21">
+        <v>2.859129794201334</v>
+      </c>
+      <c r="R21">
+        <v>25.732168147812</v>
+      </c>
+      <c r="S21">
+        <v>0.04013268611561498</v>
+      </c>
+      <c r="T21">
+        <v>0.04013268611561498</v>
       </c>
     </row>
   </sheetData>
